--- a/www/IndicatorsPerCountry/SriLanka_GDPperCapita_TerritorialRef_1948_2012_CCode_144.xlsx
+++ b/www/IndicatorsPerCountry/SriLanka_GDPperCapita_TerritorialRef_1948_2012_CCode_144.xlsx
@@ -477,13 +477,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/SriLanka_GDPperCapita_TerritorialRef_1948_2012_CCode_144.xlsx
+++ b/www/IndicatorsPerCountry/SriLanka_GDPperCapita_TerritorialRef_1948_2012_CCode_144.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="163">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,418 +36,436 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>550</t>
+    <t>877</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>851</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>945</t>
-  </si>
-  <si>
-    <t>921</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>1085</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1168</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>1290</t>
-  </si>
-  <si>
-    <t>1192</t>
-  </si>
-  <si>
-    <t>1175</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>1215</t>
-  </si>
-  <si>
-    <t>1179</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>1233</t>
-  </si>
-  <si>
-    <t>1221</t>
-  </si>
-  <si>
-    <t>1153</t>
-  </si>
-  <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>1157</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>1136</t>
-  </si>
-  <si>
-    <t>1173</t>
-  </si>
-  <si>
-    <t>1218</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>1166</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1059</t>
-  </si>
-  <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t>1066</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>1261</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>1336</t>
-  </si>
-  <si>
-    <t>1265</t>
-  </si>
-  <si>
-    <t>1203</t>
-  </si>
-  <si>
-    <t>1141</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>1184</t>
-  </si>
-  <si>
-    <t>1247</t>
-  </si>
-  <si>
-    <t>1186</t>
+    <t>899</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>1318</t>
   </si>
   <si>
     <t>1251</t>
   </si>
   <si>
-    <t>1277</t>
-  </si>
-  <si>
-    <t>1323</t>
-  </si>
-  <si>
-    <t>1284</t>
-  </si>
-  <si>
-    <t>1154</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>1073</t>
-  </si>
-  <si>
-    <t>1159</t>
-  </si>
-  <si>
-    <t>1199</t>
-  </si>
-  <si>
-    <t>1253</t>
-  </si>
-  <si>
-    <t>1293</t>
-  </si>
-  <si>
-    <t>1313</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>1296</t>
-  </si>
-  <si>
-    <t>1337</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>1297</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>1285</t>
-  </si>
-  <si>
-    <t>1295</t>
-  </si>
-  <si>
-    <t>1286</t>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>1342</t>
   </si>
   <si>
     <t>1291</t>
   </si>
   <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>1329</t>
-  </si>
-  <si>
-    <t>1368</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>1461</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>1457</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1492</t>
-  </si>
-  <si>
-    <t>1517</t>
-  </si>
-  <si>
-    <t>1527</t>
-  </si>
-  <si>
-    <t>1546</t>
-  </si>
-  <si>
-    <t>1620</t>
-  </si>
-  <si>
-    <t>1690</t>
-  </si>
-  <si>
-    <t>1766</t>
-  </si>
-  <si>
-    <t>1830</t>
-  </si>
-  <si>
-    <t>1913</t>
-  </si>
-  <si>
-    <t>1977</t>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1653</t>
+  </si>
+  <si>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1838</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1859</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1688</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1699</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>1892</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1819</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1887</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>1839</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>1674</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>2093</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>2066</t>
+  </si>
+  <si>
+    <t>2131</t>
+  </si>
+  <si>
+    <t>2091</t>
+  </si>
+  <si>
+    <t>2067</t>
+  </si>
+  <si>
+    <t>2074</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2064</t>
   </si>
   <si>
     <t>2050</t>
   </si>
   <si>
-    <t>2125</t>
-  </si>
-  <si>
-    <t>2186</t>
-  </si>
-  <si>
-    <t>2263</t>
-  </si>
-  <si>
-    <t>2252</t>
-  </si>
-  <si>
-    <t>2279</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2423.77230626</t>
-  </si>
-  <si>
-    <t>2519.45005996</t>
-  </si>
-  <si>
-    <t>2599.27920097</t>
-  </si>
-  <si>
-    <t>2739.88056515</t>
-  </si>
-  <si>
-    <t>2852.14217723</t>
-  </si>
-  <si>
-    <t>2970.88710153</t>
-  </si>
-  <si>
-    <t>3046.89212735</t>
-  </si>
-  <si>
-    <t>3204.96463274</t>
-  </si>
-  <si>
-    <t>3320.66857699</t>
-  </si>
-  <si>
-    <t>3421.4973393</t>
-  </si>
-  <si>
-    <t>3578.78930975</t>
-  </si>
-  <si>
-    <t>3489.12322974</t>
-  </si>
-  <si>
-    <t>3587.93924508</t>
-  </si>
-  <si>
-    <t>3756.71720914</t>
-  </si>
-  <si>
-    <t>3916.58653495</t>
-  </si>
-  <si>
-    <t>4125.98608135</t>
-  </si>
-  <si>
-    <t>4396.87236912</t>
-  </si>
-  <si>
-    <t>4650.71390185</t>
-  </si>
-  <si>
-    <t>4882.22475456</t>
-  </si>
-  <si>
-    <t>5011.0145127</t>
-  </si>
-  <si>
-    <t>5360.16253648</t>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>2291</t>
+  </si>
+  <si>
+    <t>2329</t>
+  </si>
+  <si>
+    <t>2389</t>
+  </si>
+  <si>
+    <t>2322</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>2378</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>2434</t>
+  </si>
+  <si>
+    <t>2464</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>2694</t>
+  </si>
+  <si>
+    <t>2815</t>
+  </si>
+  <si>
+    <t>2917</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>3268</t>
+  </si>
+  <si>
+    <t>3387</t>
+  </si>
+  <si>
+    <t>3484</t>
+  </si>
+  <si>
+    <t>3607</t>
+  </si>
+  <si>
+    <t>3590</t>
+  </si>
+  <si>
+    <t>3633</t>
+  </si>
+  <si>
+    <t>3677</t>
+  </si>
+  <si>
+    <t>3864</t>
+  </si>
+  <si>
+    <t>4214.98190086351</t>
+  </si>
+  <si>
+    <t>4020.97417549933</t>
+  </si>
+  <si>
+    <t>4247.02303462375</t>
+  </si>
+  <si>
+    <t>4500.81955529813</t>
+  </si>
+  <si>
+    <t>4702.29469465905</t>
+  </si>
+  <si>
+    <t>5187.70882955078</t>
+  </si>
+  <si>
+    <t>5628.53029882429</t>
+  </si>
+  <si>
+    <t>5440.22101891035</t>
+  </si>
+  <si>
+    <t>5488.51537319096</t>
+  </si>
+  <si>
+    <t>5841.0941387742</t>
+  </si>
+  <si>
+    <t>5620.96581354052</t>
+  </si>
+  <si>
+    <t>5721.30869094318</t>
+  </si>
+  <si>
+    <t>5963.56971257806</t>
+  </si>
+  <si>
+    <t>6191.96644316594</t>
+  </si>
+  <si>
+    <t>6491.19823388765</t>
+  </si>
+  <si>
+    <t>6904.03613976896</t>
+  </si>
+  <si>
+    <t>7283.6321055447</t>
+  </si>
+  <si>
+    <t>7622.40893241253</t>
+  </si>
+  <si>
+    <t>7796.64742403445</t>
+  </si>
+  <si>
+    <t>8319.70286162119</t>
+  </si>
+  <si>
+    <t>8918</t>
+  </si>
+  <si>
+    <t>9678</t>
+  </si>
+  <si>
+    <t>9928</t>
+  </si>
+  <si>
+    <t>10342</t>
+  </si>
+  <si>
+    <t>10763</t>
+  </si>
+  <si>
+    <t>11149</t>
   </si>
   <si>
     <t>Description</t>
@@ -3798,6 +3816,108 @@
         <v>144</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3813,50 +3933,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
